--- a/app/src/main/assets/Physical Education 4.xlsx
+++ b/app/src/main/assets/Physical Education 4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\FILES\Others\AcademicAlly Assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42797F26-03AF-410B-9BFE-D3768FD082F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C51CBE-33E3-4348-A39D-494E727A3509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
   <si>
     <t>When was basketball invented?</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>Team Sports</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -548,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,7 +567,7 @@
     <col min="6" max="6" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -586,8 +589,11 @@
       <c r="G1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -609,8 +615,11 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -632,8 +641,11 @@
       <c r="G3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -655,8 +667,11 @@
       <c r="G4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -678,8 +693,11 @@
       <c r="G5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -701,8 +719,11 @@
       <c r="G6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -724,8 +745,11 @@
       <c r="G7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -747,8 +771,11 @@
       <c r="G8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -770,8 +797,11 @@
       <c r="G9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -792,6 +822,9 @@
       </c>
       <c r="G10" t="s">
         <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -801,10 +834,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60ED5BA0-4E2E-43D2-B6B1-B551E1B3D59C}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,7 +847,7 @@
     <col min="3" max="3" width="34.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="C1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -835,8 +871,11 @@
       <c r="C2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -846,8 +885,11 @@
       <c r="C3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -857,8 +899,11 @@
       <c r="C4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -868,8 +913,11 @@
       <c r="C5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -879,8 +927,11 @@
       <c r="C6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -890,8 +941,11 @@
       <c r="C7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -901,8 +955,11 @@
       <c r="C8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -912,8 +969,11 @@
       <c r="C9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -922,6 +982,9 @@
       </c>
       <c r="C10" t="s">
         <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -931,10 +994,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD8AEB-CBDF-4B36-B8DB-A744B192A6CF}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,7 +1006,7 @@
     <col min="2" max="2" width="133.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -953,8 +1016,11 @@
       <c r="C1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -964,8 +1030,11 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -975,8 +1044,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -986,8 +1058,11 @@
       <c r="C4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -997,8 +1072,11 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1008,8 +1086,11 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1019,8 +1100,11 @@
       <c r="C7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -1030,8 +1114,11 @@
       <c r="C8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -1041,8 +1128,11 @@
       <c r="C9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -1051,6 +1141,9 @@
       </c>
       <c r="C10" t="b">
         <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
